--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\우정현\Desktop\BAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8408DB9E-46F4-4267-AC75-72DB2536506F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8061F-A6C0-4B72-9AAB-314E6765BA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POCoach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>Weight Increase per Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmitry klokov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,6 +1253,18 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,18 +1286,48 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,48 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,7 +1740,7 @@
   <dimension ref="B2:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1791,43 +1791,43 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
       <c r="R5" s="68" t="s">
         <v>11</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="104"/>
       <c r="R6" s="61" t="s">
         <v>12</v>
       </c>
@@ -1839,43 +1839,43 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="105"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="104"/>
       <c r="R7" s="69" t="s">
         <v>15</v>
       </c>
       <c r="S7" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -1933,22 +1933,22 @@
       <c r="S9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="112" t="s">
+      <c r="T9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="112" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="23">
         <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
@@ -1971,17 +1971,17 @@
       <c r="S10" s="55">
         <v>140</v>
       </c>
-      <c r="T10" s="110">
+      <c r="T10" s="84">
         <f>ROUND(S10/2,0)</f>
         <v>70</v>
       </c>
-      <c r="U10" s="113">
+      <c r="U10" s="87">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="56"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -2002,17 +2002,17 @@
         <f>ROUND(S10*0.75,10)</f>
         <v>105</v>
       </c>
-      <c r="T11" s="110">
+      <c r="T11" s="84">
         <f>ROUND(S11/2,0)</f>
         <v>53</v>
       </c>
-      <c r="U11" s="113">
+      <c r="U11" s="87">
         <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="56"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2033,17 +2033,17 @@
         <f>ROUND(S10*1.2,10)</f>
         <v>168</v>
       </c>
-      <c r="T12" s="110">
+      <c r="T12" s="84">
         <f>ROUND(S12/2,0)</f>
         <v>84</v>
       </c>
-      <c r="U12" s="113">
+      <c r="U12" s="87">
         <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2059,12 +2059,12 @@
       <c r="P13" s="22"/>
       <c r="R13" s="77"/>
       <c r="S13" s="73"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2080,12 +2080,12 @@
       <c r="P14" s="3"/>
       <c r="R14" s="80"/>
       <c r="S14" s="82"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="85"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
@@ -2101,16 +2101,16 @@
       <c r="P15" s="24"/>
       <c r="R15" s="75"/>
       <c r="S15" s="73"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="85"/>
-      <c r="C16" s="94" t="s">
-        <v>25</v>
+      <c r="B16" s="89"/>
+      <c r="C16" s="98" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="25">
         <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
@@ -2129,12 +2129,12 @@
       <c r="P16" s="27"/>
       <c r="R16" s="75"/>
       <c r="S16" s="73"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="85"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="56"/>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
@@ -2150,12 +2150,12 @@
       <c r="P17" s="30"/>
       <c r="R17" s="76"/>
       <c r="S17" s="74"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="85"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="56"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
@@ -2171,8 +2171,8 @@
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="85"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2194,8 +2194,8 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2216,8 +2216,8 @@
       <c r="S20" s="73"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2238,9 +2238,9 @@
       <c r="S21" s="73"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="96" t="s">
-        <v>26</v>
+      <c r="B22" s="89"/>
+      <c r="C22" s="110" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="64">
         <v>5</v>
@@ -2267,8 +2267,8 @@
       <c r="S22" s="73"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2294,8 +2294,8 @@
       <c r="S23" s="73"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="85"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2321,8 +2321,8 @@
       <c r="S24" s="73"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="85"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2348,8 +2348,8 @@
       <c r="S25" s="74"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2370,8 +2370,8 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="99"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2387,10 +2387,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2406,8 +2406,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="85"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2423,8 +2423,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2440,8 +2440,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -2457,8 +2457,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="85"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -2474,8 +2474,8 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -2491,8 +2491,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -2508,8 +2508,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2525,8 +2525,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="85"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -2542,8 +2542,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -2559,8 +2559,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="85"/>
-      <c r="C38" s="93"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -2576,8 +2576,8 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="85"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -2593,8 +2593,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="85"/>
-      <c r="C40" s="94"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -2610,8 +2610,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="85"/>
-      <c r="C41" s="93"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -2627,8 +2627,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="85"/>
-      <c r="C42" s="93"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -2644,8 +2644,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="85"/>
-      <c r="C43" s="93"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -2661,8 +2661,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="85"/>
-      <c r="C44" s="93"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -2678,8 +2678,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="86"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -2695,10 +2695,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="87"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -2714,8 +2714,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="85"/>
-      <c r="C47" s="87"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -2731,8 +2731,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="85"/>
-      <c r="C48" s="87"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -2748,8 +2748,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="85"/>
-      <c r="C49" s="87"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -2765,8 +2765,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="85"/>
-      <c r="C50" s="87"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -2782,8 +2782,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="85"/>
-      <c r="C51" s="87"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -2799,8 +2799,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="85"/>
-      <c r="C52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -2816,8 +2816,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="85"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -2833,8 +2833,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="85"/>
-      <c r="C54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2850,8 +2850,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="85"/>
-      <c r="C55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -2867,8 +2867,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="85"/>
-      <c r="C56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -2884,8 +2884,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="85"/>
-      <c r="C57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -2901,8 +2901,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="85"/>
-      <c r="C58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -2918,8 +2918,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="85"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -2935,8 +2935,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="85"/>
-      <c r="C60" s="90"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -2952,8 +2952,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="85"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -2969,8 +2969,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="85"/>
-      <c r="C62" s="90"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -2986,8 +2986,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="86"/>
-      <c r="C63" s="91"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
       <c r="F63" s="45"/>
@@ -3003,10 +3003,10 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="87"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3022,8 +3022,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="85"/>
-      <c r="C65" s="87"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3039,8 +3039,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="85"/>
-      <c r="C66" s="87"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3056,8 +3056,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="85"/>
-      <c r="C67" s="87"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3073,8 +3073,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="85"/>
-      <c r="C68" s="87"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3090,8 +3090,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="85"/>
-      <c r="C69" s="87"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3107,8 +3107,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="85"/>
-      <c r="C70" s="88"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3124,8 +3124,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="85"/>
-      <c r="C71" s="88"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3141,8 +3141,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="85"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3158,8 +3158,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="85"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3175,8 +3175,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="85"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3192,8 +3192,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="85"/>
-      <c r="C75" s="88"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3209,8 +3209,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="85"/>
-      <c r="C76" s="89"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3226,8 +3226,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="85"/>
-      <c r="C77" s="90"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3243,8 +3243,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="85"/>
-      <c r="C78" s="90"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3260,8 +3260,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="85"/>
-      <c r="C79" s="90"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3277,8 +3277,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="85"/>
-      <c r="C80" s="90"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3294,8 +3294,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="86"/>
-      <c r="C81" s="91"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
       <c r="F81" s="45"/>
@@ -3311,10 +3311,10 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="87"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3330,8 +3330,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="85"/>
-      <c r="C83" s="87"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3347,8 +3347,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="85"/>
-      <c r="C84" s="87"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3364,8 +3364,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="85"/>
-      <c r="C85" s="87"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3381,8 +3381,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="85"/>
-      <c r="C86" s="87"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3398,8 +3398,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="85"/>
-      <c r="C87" s="87"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="91"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3415,8 +3415,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="85"/>
-      <c r="C88" s="88"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3432,8 +3432,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="85"/>
-      <c r="C89" s="88"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -3449,8 +3449,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="85"/>
-      <c r="C90" s="88"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -3466,8 +3466,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="85"/>
-      <c r="C91" s="88"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -3483,8 +3483,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="85"/>
-      <c r="C92" s="88"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -3500,8 +3500,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="85"/>
-      <c r="C93" s="88"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -3517,8 +3517,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="85"/>
-      <c r="C94" s="89"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="93"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -3534,8 +3534,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="85"/>
-      <c r="C95" s="90"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="94"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -3551,8 +3551,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="85"/>
-      <c r="C96" s="90"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -3568,8 +3568,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="85"/>
-      <c r="C97" s="90"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="94"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -3585,8 +3585,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="85"/>
-      <c r="C98" s="90"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -3602,8 +3602,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="86"/>
-      <c r="C99" s="91"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
       <c r="F99" s="45"/>
@@ -3619,10 +3619,10 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="84" t="s">
+      <c r="B100" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="87"/>
+      <c r="C100" s="91"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -3638,8 +3638,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="85"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="91"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -3655,8 +3655,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="85"/>
-      <c r="C102" s="87"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="91"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -3672,8 +3672,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="85"/>
-      <c r="C103" s="87"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="91"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -3689,8 +3689,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="85"/>
-      <c r="C104" s="87"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="91"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -3706,8 +3706,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="85"/>
-      <c r="C105" s="87"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="91"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -3723,8 +3723,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="85"/>
-      <c r="C106" s="88"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -3740,8 +3740,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="85"/>
-      <c r="C107" s="88"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="92"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -3757,8 +3757,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="85"/>
-      <c r="C108" s="88"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -3774,8 +3774,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="85"/>
-      <c r="C109" s="88"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -3791,8 +3791,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="85"/>
-      <c r="C110" s="88"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -3808,8 +3808,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="85"/>
-      <c r="C111" s="88"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="92"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -3825,8 +3825,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="85"/>
-      <c r="C112" s="89"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="93"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -3842,8 +3842,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="85"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -3859,8 +3859,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="85"/>
-      <c r="C114" s="90"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -3876,8 +3876,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="85"/>
-      <c r="C115" s="90"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="94"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -3893,8 +3893,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="85"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="89"/>
+      <c r="C116" s="94"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -3910,8 +3910,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="86"/>
-      <c r="C117" s="92"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="95"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -3942,6 +3942,10 @@
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B100:B117"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
     <mergeCell ref="B64:B81"/>
     <mergeCell ref="C64:C69"/>
     <mergeCell ref="C70:C75"/>
@@ -3950,10 +3954,6 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
-    <mergeCell ref="B100:B117"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8061F-A6C0-4B72-9AAB-314E6765BA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64700E9D-03F4-466B-BA1E-6A43AB381A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
   <sheets>
     <sheet name="How to" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sample Schedules</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>Dmitry klokov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -996,13 +1004,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,9 +1341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1265,13 +1353,70 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,65 +1428,38 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,7 +1494,7 @@
             <v>0.125</v>
           </cell>
           <cell r="I11">
-            <v>85</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
@@ -1384,7 +1502,7 @@
             <v>0.125</v>
           </cell>
           <cell r="I12">
-            <v>85</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -1740,7 +1858,7 @@
   <dimension ref="B2:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1748,8 +1866,8 @@
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="13.375" customWidth="1"/>
-    <col min="21" max="21" width="22.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -1791,20 +1909,20 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
       <c r="R5" s="68" t="s">
         <v>11</v>
       </c>
@@ -1816,18 +1934,18 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="104"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
       <c r="R6" s="61" t="s">
         <v>12</v>
       </c>
@@ -1839,18 +1957,18 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="104"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="92"/>
       <c r="R7" s="69" t="s">
         <v>15</v>
       </c>
@@ -1862,20 +1980,20 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -1933,18 +2051,18 @@
       <c r="S9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="86" t="s">
+      <c r="T9" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="86" t="s">
+      <c r="U9" s="85" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="99" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="67" t="s">
@@ -1971,17 +2089,17 @@
       <c r="S10" s="55">
         <v>140</v>
       </c>
-      <c r="T10" s="84">
+      <c r="T10" s="83">
         <f>ROUND(S10/2,0)</f>
         <v>70</v>
       </c>
-      <c r="U10" s="87">
+      <c r="U10" s="86">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="89"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="56"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -2002,17 +2120,17 @@
         <f>ROUND(S10*0.75,10)</f>
         <v>105</v>
       </c>
-      <c r="T11" s="84">
+      <c r="T11" s="83">
         <f>ROUND(S11/2,0)</f>
         <v>53</v>
       </c>
-      <c r="U11" s="87">
+      <c r="U11" s="86">
         <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="56"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2033,17 +2151,17 @@
         <f>ROUND(S10*1.2,10)</f>
         <v>168</v>
       </c>
-      <c r="T12" s="84">
+      <c r="T12" s="83">
         <f>ROUND(S12/2,0)</f>
         <v>84</v>
       </c>
-      <c r="U12" s="87">
+      <c r="U12" s="86">
         <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="89"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2059,12 +2177,12 @@
       <c r="P13" s="22"/>
       <c r="R13" s="77"/>
       <c r="S13" s="73"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2080,12 +2198,12 @@
       <c r="P14" s="3"/>
       <c r="R14" s="80"/>
       <c r="S14" s="82"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
@@ -2101,12 +2219,12 @@
       <c r="P15" s="24"/>
       <c r="R15" s="75"/>
       <c r="S15" s="73"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="89"/>
-      <c r="C16" s="98" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="101" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="62" t="s">
@@ -2129,12 +2247,12 @@
       <c r="P16" s="27"/>
       <c r="R16" s="75"/>
       <c r="S16" s="73"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="56"/>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
@@ -2150,12 +2268,12 @@
       <c r="P17" s="30"/>
       <c r="R17" s="76"/>
       <c r="S17" s="74"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="56"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
@@ -2171,8 +2289,8 @@
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2189,13 +2307,19 @@
       <c r="R19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="83" t="s">
+      <c r="S19" s="122" t="s">
         <v>20</v>
       </c>
+      <c r="T19" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="113" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="89"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2213,11 +2337,13 @@
         <f>B10</f>
         <v>Day1</v>
       </c>
-      <c r="S20" s="73"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="114"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="89"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2235,11 +2361,13 @@
         <f>B28</f>
         <v>Day2</v>
       </c>
-      <c r="S21" s="73"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="114"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
-      <c r="C22" s="110" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="103" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="64">
@@ -2264,11 +2392,13 @@
         <f>B46</f>
         <v>Day3</v>
       </c>
-      <c r="S22" s="73"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="114"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
-      <c r="C23" s="111"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2291,11 +2421,13 @@
         <f>B64</f>
         <v>Day4</v>
       </c>
-      <c r="S23" s="73"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="114"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="89"/>
-      <c r="C24" s="111"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2318,11 +2450,13 @@
         <f>B82</f>
         <v>Day5</v>
       </c>
-      <c r="S24" s="73"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="114"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="89"/>
-      <c r="C25" s="111"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2345,11 +2479,13 @@
         <f>B100</f>
         <v>Day6</v>
       </c>
-      <c r="S25" s="74"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="117"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2370,8 +2506,8 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="113"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2387,10 +2523,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2406,8 +2542,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="89"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2423,8 +2559,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="89"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2440,8 +2576,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="89"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -2457,8 +2593,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="89"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -2474,8 +2610,8 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
-      <c r="C33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -2491,8 +2627,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="89"/>
-      <c r="C34" s="98"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -2508,8 +2644,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="89"/>
-      <c r="C35" s="97"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2525,8 +2661,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -2542,8 +2678,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="89"/>
-      <c r="C37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -2559,8 +2695,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="89"/>
-      <c r="C38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -2576,8 +2712,8 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="89"/>
-      <c r="C39" s="96"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -2593,8 +2729,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="89"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -2610,8 +2746,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="89"/>
-      <c r="C41" s="97"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -2627,8 +2763,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="89"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -2644,8 +2780,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="89"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -2661,8 +2797,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="89"/>
-      <c r="C44" s="97"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -2678,8 +2814,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="90"/>
-      <c r="C45" s="94"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -2695,10 +2831,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="91"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -2714,8 +2850,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="89"/>
-      <c r="C47" s="91"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -2731,8 +2867,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="89"/>
-      <c r="C48" s="91"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -2748,8 +2884,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="89"/>
-      <c r="C49" s="91"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -2765,8 +2901,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="89"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -2782,8 +2918,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="89"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -2799,8 +2935,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="89"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -2816,8 +2952,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="89"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -2833,8 +2969,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="89"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2850,8 +2986,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="89"/>
-      <c r="C55" s="92"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -2867,8 +3003,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="89"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -2884,8 +3020,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="89"/>
-      <c r="C57" s="92"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -2901,8 +3037,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="89"/>
-      <c r="C58" s="93"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -2918,8 +3054,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="89"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="108"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -2935,8 +3071,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="89"/>
-      <c r="C60" s="94"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="108"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -2952,8 +3088,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="89"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="108"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -2969,8 +3105,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="94"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="108"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -2986,8 +3122,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="90"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
       <c r="F63" s="45"/>
@@ -3003,10 +3139,10 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3022,8 +3158,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="89"/>
-      <c r="C65" s="91"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3039,8 +3175,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="89"/>
-      <c r="C66" s="91"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3056,8 +3192,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="89"/>
-      <c r="C67" s="91"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3073,8 +3209,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="89"/>
-      <c r="C68" s="91"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3090,8 +3226,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="89"/>
-      <c r="C69" s="91"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3107,8 +3243,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="89"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3124,8 +3260,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="89"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3141,8 +3277,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="89"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3158,8 +3294,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="89"/>
-      <c r="C73" s="92"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3175,8 +3311,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="89"/>
-      <c r="C74" s="92"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3192,8 +3328,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="89"/>
-      <c r="C75" s="92"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3209,8 +3345,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="89"/>
-      <c r="C76" s="93"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="111"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3226,8 +3362,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="89"/>
-      <c r="C77" s="94"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="108"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3243,8 +3379,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="89"/>
-      <c r="C78" s="94"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="108"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3260,8 +3396,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="89"/>
-      <c r="C79" s="94"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="108"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3277,8 +3413,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="89"/>
-      <c r="C80" s="94"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="108"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3294,8 +3430,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="90"/>
-      <c r="C81" s="96"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="100"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
       <c r="F81" s="45"/>
@@ -3311,10 +3447,10 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="91"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3330,8 +3466,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="89"/>
-      <c r="C83" s="91"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3347,8 +3483,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="89"/>
-      <c r="C84" s="91"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3364,8 +3500,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="89"/>
-      <c r="C85" s="91"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="109"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3381,8 +3517,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="89"/>
-      <c r="C86" s="91"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3398,8 +3534,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="89"/>
-      <c r="C87" s="91"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="109"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3415,8 +3551,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="89"/>
-      <c r="C88" s="92"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3432,8 +3568,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="89"/>
-      <c r="C89" s="92"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -3449,8 +3585,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="89"/>
-      <c r="C90" s="92"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -3466,8 +3602,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="89"/>
-      <c r="C91" s="92"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -3483,8 +3619,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="89"/>
-      <c r="C92" s="92"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -3500,8 +3636,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="89"/>
-      <c r="C93" s="92"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -3517,8 +3653,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="89"/>
-      <c r="C94" s="93"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="111"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -3534,8 +3670,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="89"/>
-      <c r="C95" s="94"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="108"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -3551,8 +3687,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="89"/>
-      <c r="C96" s="94"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="108"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -3568,8 +3704,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="89"/>
-      <c r="C97" s="94"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="108"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -3585,8 +3721,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="89"/>
-      <c r="C98" s="94"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="108"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -3602,8 +3738,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="90"/>
-      <c r="C99" s="96"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
       <c r="F99" s="45"/>
@@ -3619,10 +3755,10 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="91"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -3638,8 +3774,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="89"/>
-      <c r="C101" s="91"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -3655,8 +3791,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="89"/>
-      <c r="C102" s="91"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -3672,8 +3808,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="89"/>
-      <c r="C103" s="91"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -3689,8 +3825,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="89"/>
-      <c r="C104" s="91"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -3706,8 +3842,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="89"/>
-      <c r="C105" s="91"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -3723,8 +3859,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="89"/>
-      <c r="C106" s="92"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -3740,8 +3876,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="89"/>
-      <c r="C107" s="92"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="110"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -3757,8 +3893,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="89"/>
-      <c r="C108" s="92"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="110"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -3774,8 +3910,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="89"/>
-      <c r="C109" s="92"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="110"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -3791,8 +3927,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="89"/>
-      <c r="C110" s="92"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="110"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -3808,8 +3944,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="89"/>
-      <c r="C111" s="92"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="110"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -3825,8 +3961,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="89"/>
-      <c r="C112" s="93"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="111"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -3842,8 +3978,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="89"/>
-      <c r="C113" s="94"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="108"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -3859,8 +3995,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="89"/>
-      <c r="C114" s="94"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="108"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -3876,8 +4012,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="89"/>
-      <c r="C115" s="94"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="108"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -3893,8 +4029,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="89"/>
-      <c r="C116" s="94"/>
+      <c r="B116" s="97"/>
+      <c r="C116" s="108"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -3910,8 +4046,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="90"/>
-      <c r="C117" s="95"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="112"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -3928,20 +4064,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E5:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
     <mergeCell ref="B100:B117"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C106:C111"/>
@@ -3954,6 +4076,20 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="E5:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64700E9D-03F4-466B-BA1E-6A43AB381A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E821A-CB77-4BA4-A023-AC0C24846846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Sample Schedules</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Squat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,18 @@
   </si>
   <si>
     <t>Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power clean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1087,13 +1095,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,6 +1374,54 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,21 +1452,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,53 +1467,26 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007F409-E72B-4603-8FBB-AC8C474A0966}">
   <dimension ref="B2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,43 +1936,43 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="105"/>
       <c r="R5" s="68" t="s">
         <v>11</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
       <c r="R6" s="61" t="s">
         <v>12</v>
       </c>
@@ -1957,18 +1984,18 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="92"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="108"/>
       <c r="R7" s="69" t="s">
         <v>15</v>
       </c>
@@ -1980,20 +2007,20 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2052,37 +2079,70 @@
         <v>14</v>
       </c>
       <c r="T9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="85" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>23</v>
+      <c r="D10" s="67">
+        <v>5</v>
       </c>
       <c r="E10" s="23">
         <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
         <v>55</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
+      <c r="F10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="G10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="H10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="I10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="J10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="K10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="L10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="M10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="N10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="O10" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="P10" s="22">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
       <c r="R10" s="81" t="s">
         <v>16</v>
       </c>
@@ -2098,21 +2158,59 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="56">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="F11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="G11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="H11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="I11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="J11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="K11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="L11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="M11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="N11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="O11" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="P11" s="22">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
       <c r="R11" s="77" t="s">
         <v>17</v>
       </c>
@@ -2129,21 +2227,59 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="56">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="F12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="G12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="H12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="I12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="J12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="K12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="L12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="M12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="N12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="O12" s="21">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
+      <c r="P12" s="22">
+        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <v>55</v>
+      </c>
       <c r="R12" s="77" t="s">
         <v>18</v>
       </c>
@@ -2160,8 +2296,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="97"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2181,8 +2317,8 @@
       <c r="U13" s="83"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2202,7 +2338,7 @@
       <c r="U14" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="100"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
@@ -2223,74 +2359,183 @@
       <c r="U15" s="83"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
-      <c r="C16" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="102" t="s">
         <v>23</v>
+      </c>
+      <c r="D16" s="62">
+        <v>5</v>
       </c>
       <c r="E16" s="25">
         <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
         <v>70</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
+      <c r="F16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="G16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="H16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="I16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="J16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="K16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="L16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="M16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="N16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="O16" s="26">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="P16" s="27">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
       <c r="R16" s="75"/>
       <c r="S16" s="73"/>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="56">
+        <v>5</v>
+      </c>
+      <c r="E17" s="28">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="F17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="G17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="H17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="I17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="J17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="K17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="L17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="M17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="N17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="O17" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="P17" s="30">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
       <c r="R17" s="76"/>
       <c r="S17" s="74"/>
       <c r="T17" s="84"/>
       <c r="U17" s="84"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="56">
+        <v>5</v>
+      </c>
+      <c r="E18" s="28">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="F18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="G18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="H18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="I18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="J18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="K18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="L18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="M18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="N18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="O18" s="29">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
+      <c r="P18" s="30">
+        <f>ROUND(S10*(1-U10*4)/(2*2.5),0)*2*2.5</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2307,19 +2552,19 @@
       <c r="R19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="122" t="s">
+      <c r="S19" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="118" t="s">
+      <c r="T19" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="113" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="97"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2337,13 +2582,19 @@
         <f>B10</f>
         <v>Day1</v>
       </c>
-      <c r="S20" s="115"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="114"/>
+      <c r="S20" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="88" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="97"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2361,44 +2612,77 @@
         <f>B28</f>
         <v>Day2</v>
       </c>
-      <c r="S21" s="115"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="114"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="88"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="103" t="s">
-        <v>25</v>
+      <c r="B22" s="93"/>
+      <c r="C22" s="114" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="119">
         <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
         <v>85</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
+      <c r="F22" s="118">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="G22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="H22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="I22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="J22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="K22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="L22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="M22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="N22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="O22" s="34">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="P22" s="35">
+        <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
+        <v>85</v>
+      </c>
       <c r="R22" s="75" t="str">
         <f>B46</f>
         <v>Day3</v>
       </c>
-      <c r="S22" s="115"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="114"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="88"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2406,28 +2690,61 @@
         <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
         <v>105</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
+      <c r="F23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="G23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="H23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="I23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="J23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="K23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="L23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="M23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="N23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="O23" s="21">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
+      <c r="P23" s="22">
+        <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
+        <v>105</v>
+      </c>
       <c r="R23" s="75" t="str">
         <f>B64</f>
         <v>Day4</v>
       </c>
-      <c r="S23" s="115"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="114"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="88"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2435,28 +2752,61 @@
         <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
         <v>125</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
+      <c r="F24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="G24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="H24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="I24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="J24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="K24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="L24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="M24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="N24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="O24" s="21">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="P24" s="22">
+        <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
+        <v>125</v>
+      </c>
       <c r="R24" s="75" t="str">
         <f>B82</f>
         <v>Day5</v>
       </c>
-      <c r="S24" s="115"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="114"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="88"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2464,28 +2814,61 @@
         <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
         <v>145</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
+      <c r="F25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="G25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="H25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="I25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="J25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="K25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="L25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="M25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="N25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="O25" s="21">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
+      <c r="P25" s="22">
+        <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
+        <v>145</v>
+      </c>
       <c r="R25" s="76" t="str">
         <f>B100</f>
         <v>Day6</v>
       </c>
-      <c r="S25" s="116"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="117"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="89"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="97"/>
-      <c r="C26" s="105"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2493,21 +2876,54 @@
         <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
         <v>170</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
+      <c r="F26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="G26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="H26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="I26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="J26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="K26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="L26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="M26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="N26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="O26" s="21">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
+      <c r="P26" s="22">
+        <f>ROUND(S12*(1-U12*0)/(2*2.5),0)*2*2.5</f>
+        <v>170</v>
+      </c>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="106"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2523,10 +2939,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2542,8 +2958,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2559,8 +2975,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2576,8 +2992,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -2593,8 +3009,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -2610,7 +3026,7 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="97"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="100"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
@@ -2627,8 +3043,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
-      <c r="C34" s="101"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -2644,8 +3060,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
-      <c r="C35" s="99"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2661,8 +3077,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="97"/>
-      <c r="C36" s="99"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -2678,8 +3094,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
-      <c r="C37" s="99"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -2695,8 +3111,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="97"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -2712,7 +3128,7 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="97"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="100"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
@@ -2729,8 +3145,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="97"/>
-      <c r="C40" s="101"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -2746,8 +3162,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="97"/>
-      <c r="C41" s="99"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -2763,8 +3179,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="97"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -2780,8 +3196,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="97"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -2797,8 +3213,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="97"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -2814,8 +3230,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="98"/>
-      <c r="C45" s="108"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -2831,10 +3247,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="109"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -2850,8 +3266,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="109"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -2867,8 +3283,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
-      <c r="C48" s="109"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -2884,8 +3300,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="97"/>
-      <c r="C49" s="109"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -2901,8 +3317,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="97"/>
-      <c r="C50" s="109"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -2918,8 +3334,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="97"/>
-      <c r="C51" s="109"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -2935,8 +3351,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="97"/>
-      <c r="C52" s="110"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -2952,8 +3368,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="97"/>
-      <c r="C53" s="110"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="96"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -2969,8 +3385,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="97"/>
-      <c r="C54" s="110"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2986,8 +3402,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="97"/>
-      <c r="C55" s="110"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="96"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -3003,8 +3419,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="97"/>
-      <c r="C56" s="110"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="96"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -3020,8 +3436,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="97"/>
-      <c r="C57" s="110"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="96"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -3037,8 +3453,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="97"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -3054,8 +3470,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="97"/>
-      <c r="C59" s="108"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -3071,8 +3487,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="97"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -3088,8 +3504,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
-      <c r="C61" s="108"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -3105,8 +3521,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="97"/>
-      <c r="C62" s="108"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -3122,7 +3538,7 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="98"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="100"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
@@ -3139,10 +3555,10 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="109"/>
+      <c r="C64" s="95"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3158,8 +3574,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="97"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3175,8 +3591,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="97"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3192,8 +3608,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="97"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3209,8 +3625,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="97"/>
-      <c r="C68" s="109"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3226,8 +3642,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="97"/>
-      <c r="C69" s="109"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3243,8 +3659,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="97"/>
-      <c r="C70" s="110"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="96"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3260,8 +3676,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="97"/>
-      <c r="C71" s="110"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="96"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3277,8 +3693,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="97"/>
-      <c r="C72" s="110"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="96"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3294,8 +3710,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="97"/>
-      <c r="C73" s="110"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3311,8 +3727,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="97"/>
-      <c r="C74" s="110"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3328,8 +3744,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="97"/>
-      <c r="C75" s="110"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3345,8 +3761,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="97"/>
-      <c r="C76" s="111"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3362,8 +3778,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="97"/>
-      <c r="C77" s="108"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="98"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3379,8 +3795,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="97"/>
-      <c r="C78" s="108"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3396,8 +3812,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="97"/>
-      <c r="C79" s="108"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3413,8 +3829,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="97"/>
-      <c r="C80" s="108"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="98"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3430,7 +3846,7 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="98"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="100"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
@@ -3447,10 +3863,10 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="109"/>
+      <c r="C82" s="95"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3466,8 +3882,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="97"/>
-      <c r="C83" s="109"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="95"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3483,8 +3899,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="97"/>
-      <c r="C84" s="109"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="95"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3500,8 +3916,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="97"/>
-      <c r="C85" s="109"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3517,8 +3933,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="97"/>
-      <c r="C86" s="109"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="95"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3534,8 +3950,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="97"/>
-      <c r="C87" s="109"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="95"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3551,8 +3967,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="97"/>
-      <c r="C88" s="110"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3568,8 +3984,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="97"/>
-      <c r="C89" s="110"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -3585,8 +4001,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="97"/>
-      <c r="C90" s="110"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -3602,8 +4018,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="97"/>
-      <c r="C91" s="110"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -3619,8 +4035,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="97"/>
-      <c r="C92" s="110"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -3636,8 +4052,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="97"/>
-      <c r="C93" s="110"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="96"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -3653,8 +4069,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="97"/>
-      <c r="C94" s="111"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -3670,8 +4086,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="97"/>
-      <c r="C95" s="108"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="98"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -3687,8 +4103,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="97"/>
-      <c r="C96" s="108"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="98"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -3704,8 +4120,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="97"/>
-      <c r="C97" s="108"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="98"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -3721,8 +4137,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="97"/>
-      <c r="C98" s="108"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -3738,7 +4154,7 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="98"/>
+      <c r="B99" s="94"/>
       <c r="C99" s="100"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
@@ -3755,10 +4171,10 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="109"/>
+      <c r="C100" s="95"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -3774,8 +4190,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="97"/>
-      <c r="C101" s="109"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="95"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -3791,8 +4207,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="97"/>
-      <c r="C102" s="109"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="95"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -3808,8 +4224,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="97"/>
-      <c r="C103" s="109"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -3825,8 +4241,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="97"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="95"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -3842,8 +4258,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="97"/>
-      <c r="C105" s="109"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="95"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -3859,8 +4275,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="97"/>
-      <c r="C106" s="110"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -3876,8 +4292,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="97"/>
-      <c r="C107" s="110"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="96"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -3893,8 +4309,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="97"/>
-      <c r="C108" s="110"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -3910,8 +4326,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="97"/>
-      <c r="C109" s="110"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="96"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -3927,8 +4343,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="97"/>
-      <c r="C110" s="110"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -3944,8 +4360,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="97"/>
-      <c r="C111" s="110"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -3961,8 +4377,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="97"/>
-      <c r="C112" s="111"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="97"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -3978,8 +4394,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="97"/>
-      <c r="C113" s="108"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="98"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -3995,8 +4411,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="97"/>
-      <c r="C114" s="108"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="98"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -4012,8 +4428,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="97"/>
-      <c r="C115" s="108"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="98"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -4029,8 +4445,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="97"/>
-      <c r="C116" s="108"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="98"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -4046,8 +4462,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="98"/>
-      <c r="C117" s="112"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="99"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -4064,6 +4480,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E5:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
     <mergeCell ref="B100:B117"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C106:C111"/>
@@ -4076,20 +4506,6 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="E5:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E821A-CB77-4BA4-A023-AC0C24846846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3718D0-3285-4433-852A-112E355D1E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Sample Schedules</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>Reps</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +158,18 @@
   <si>
     <t>Power clean</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1389,13 +1377,91 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,85 +1473,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007F409-E72B-4603-8FBB-AC8C474A0966}">
   <dimension ref="B2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,45 +1924,45 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
       <c r="R5" s="68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="104"/>
       <c r="R6" s="61" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S6" s="71">
         <v>3</v>
@@ -1984,43 +1972,43 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="108"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="104"/>
       <c r="R7" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="72" t="s">
         <v>15</v>
-      </c>
-      <c r="S7" s="72" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2073,24 +2061,24 @@
         <v>12</v>
       </c>
       <c r="R9" s="78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S9" s="79" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T9" s="85" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U9" s="85" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>22</v>
+      <c r="B10" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="67">
         <v>5</v>
@@ -2144,7 +2132,7 @@
         <v>55</v>
       </c>
       <c r="R10" s="81" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S10" s="55">
         <v>140</v>
@@ -2158,8 +2146,8 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="93"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="56">
         <v>5</v>
       </c>
@@ -2212,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="R11" s="77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S11" s="73">
         <f>ROUND(S10*0.75,10)</f>
@@ -2227,8 +2215,8 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="56">
         <v>5</v>
       </c>
@@ -2281,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="R12" s="77" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S12" s="73">
         <f>ROUND(S10*1.2,10)</f>
@@ -2296,8 +2284,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2317,8 +2305,8 @@
       <c r="U13" s="83"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="93"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2338,8 +2326,8 @@
       <c r="U14" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="93"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
@@ -2359,9 +2347,9 @@
       <c r="U15" s="83"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="93"/>
-      <c r="C16" s="102" t="s">
-        <v>23</v>
+      <c r="B16" s="109"/>
+      <c r="C16" s="113" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="62">
         <v>5</v>
@@ -2420,8 +2408,8 @@
       <c r="U16" s="83"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="93"/>
-      <c r="C17" s="101"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="56">
         <v>5</v>
       </c>
@@ -2479,8 +2467,8 @@
       <c r="U17" s="84"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="56">
         <v>5</v>
       </c>
@@ -2534,8 +2522,8 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2550,21 +2538,21 @@
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
       <c r="R19" s="69" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S19" s="91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T19" s="90" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U19" s="87" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="93"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2580,21 +2568,21 @@
       <c r="P20" s="6"/>
       <c r="R20" s="75" t="str">
         <f>B10</f>
-        <v>Day1</v>
-      </c>
-      <c r="S20" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="122" t="s">
-        <v>32</v>
+        <v>Mon</v>
+      </c>
+      <c r="S20" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="96" t="s">
+        <v>26</v>
       </c>
       <c r="U20" s="88" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="93"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2610,25 +2598,25 @@
       <c r="P21" s="33"/>
       <c r="R21" s="75" t="str">
         <f>B28</f>
-        <v>Day2</v>
-      </c>
-      <c r="S21" s="120"/>
-      <c r="T21" s="123"/>
+        <v>Wed</v>
+      </c>
+      <c r="S21" s="94"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="88"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="114" t="s">
-        <v>24</v>
+      <c r="B22" s="109"/>
+      <c r="C22" s="115" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="93">
         <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
         <v>85</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="92">
         <f>ROUND(S12*(1-U12*4)/(2*2.5),0)*2*2.5</f>
         <v>85</v>
       </c>
@@ -2674,15 +2662,15 @@
       </c>
       <c r="R22" s="75" t="str">
         <f>B46</f>
-        <v>Day3</v>
-      </c>
-      <c r="S22" s="120"/>
-      <c r="T22" s="123"/>
+        <v>Fri</v>
+      </c>
+      <c r="S22" s="94"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="88"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="115"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2734,17 +2722,17 @@
         <f>ROUND(S12*(1-U12*3)/(2*2.5),0)*2*2.5</f>
         <v>105</v>
       </c>
-      <c r="R23" s="75" t="str">
+      <c r="R23" s="75">
         <f>B64</f>
-        <v>Day4</v>
-      </c>
-      <c r="S23" s="120"/>
-      <c r="T23" s="123"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="94"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="88"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="93"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2796,17 +2784,17 @@
         <f>ROUND(S12*(1-U12*2)/(2*2.5),0)*2*2.5</f>
         <v>125</v>
       </c>
-      <c r="R24" s="75" t="str">
+      <c r="R24" s="75">
         <f>B82</f>
-        <v>Day5</v>
-      </c>
-      <c r="S24" s="120"/>
-      <c r="T24" s="123"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="94"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="88"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="93"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2858,17 +2846,17 @@
         <f>ROUND(S12*(1-U12*1)/(2*2.5),0)*2*2.5</f>
         <v>145</v>
       </c>
-      <c r="R25" s="76" t="str">
+      <c r="R25" s="76">
         <f>B100</f>
-        <v>Day6</v>
-      </c>
-      <c r="S25" s="121"/>
-      <c r="T25" s="124"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="95"/>
+      <c r="T25" s="98"/>
       <c r="U25" s="89"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="93"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2922,8 +2910,8 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
-      <c r="C27" s="117"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2939,10 +2927,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="101"/>
+      <c r="B28" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="111"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2958,8 +2946,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="93"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2975,8 +2963,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="93"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2992,8 +2980,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -3009,8 +2997,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="93"/>
-      <c r="C32" s="101"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -3026,8 +3014,8 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -3043,8 +3031,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -3060,8 +3048,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
-      <c r="C35" s="101"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -3077,8 +3065,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -3094,8 +3082,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
-      <c r="C37" s="101"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -3111,8 +3099,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
-      <c r="C38" s="101"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -3128,8 +3116,8 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="93"/>
-      <c r="C39" s="100"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -3145,8 +3133,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="93"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -3162,8 +3150,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="93"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -3179,8 +3167,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="93"/>
-      <c r="C42" s="101"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -3196,8 +3184,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="93"/>
-      <c r="C43" s="101"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -3213,8 +3201,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="93"/>
-      <c r="C44" s="101"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -3230,8 +3218,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="94"/>
-      <c r="C45" s="98"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -3247,10 +3235,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="95"/>
+      <c r="B46" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="121"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -3266,8 +3254,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="95"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -3283,8 +3271,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="93"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -3300,8 +3288,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="93"/>
-      <c r="C49" s="95"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -3317,8 +3305,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="93"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -3334,8 +3322,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="93"/>
-      <c r="C51" s="95"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -3351,8 +3339,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="93"/>
-      <c r="C52" s="96"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -3368,8 +3356,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="93"/>
-      <c r="C53" s="96"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -3385,8 +3373,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="93"/>
-      <c r="C54" s="96"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -3402,8 +3390,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="93"/>
-      <c r="C55" s="96"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -3419,8 +3407,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="93"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -3436,8 +3424,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="93"/>
-      <c r="C57" s="96"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="122"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -3453,8 +3441,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="93"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -3470,8 +3458,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="93"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -3487,8 +3475,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
-      <c r="C60" s="98"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -3504,8 +3492,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="93"/>
-      <c r="C61" s="98"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="120"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -3521,8 +3509,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="93"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="120"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -3538,8 +3526,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="94"/>
-      <c r="C63" s="100"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
       <c r="F63" s="45"/>
@@ -3555,10 +3543,8 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="95"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="121"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3574,8 +3560,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="93"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3591,8 +3577,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="93"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="121"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3608,8 +3594,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="93"/>
-      <c r="C67" s="95"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3625,8 +3611,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="93"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="121"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3642,8 +3628,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="93"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="121"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3659,8 +3645,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="93"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3676,8 +3662,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="93"/>
-      <c r="C71" s="96"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3693,8 +3679,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="93"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3710,8 +3696,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="93"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3727,8 +3713,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="93"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3744,8 +3730,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="93"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="122"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3761,8 +3747,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="93"/>
-      <c r="C76" s="97"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3778,8 +3764,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="93"/>
-      <c r="C77" s="98"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="120"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3795,8 +3781,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="93"/>
-      <c r="C78" s="98"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="120"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3812,8 +3798,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="93"/>
-      <c r="C79" s="98"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="120"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3829,8 +3815,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="93"/>
-      <c r="C80" s="98"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="120"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3846,8 +3832,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="94"/>
-      <c r="C81" s="100"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
       <c r="F81" s="45"/>
@@ -3863,10 +3849,8 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="95"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3882,8 +3866,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="93"/>
-      <c r="C83" s="95"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3899,8 +3883,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="93"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3916,8 +3900,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="93"/>
-      <c r="C85" s="95"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3933,8 +3917,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="93"/>
-      <c r="C86" s="95"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3950,8 +3934,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="93"/>
-      <c r="C87" s="95"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3967,8 +3951,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="93"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3984,8 +3968,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="93"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="122"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -4001,8 +3985,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="93"/>
-      <c r="C90" s="96"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="122"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -4018,8 +4002,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="93"/>
-      <c r="C91" s="96"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -4035,8 +4019,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="93"/>
-      <c r="C92" s="96"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="122"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -4052,8 +4036,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="93"/>
-      <c r="C93" s="96"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="122"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -4069,8 +4053,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="93"/>
-      <c r="C94" s="97"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -4086,8 +4070,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="93"/>
-      <c r="C95" s="98"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -4103,8 +4087,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="93"/>
-      <c r="C96" s="98"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="120"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -4120,8 +4104,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="93"/>
-      <c r="C97" s="98"/>
+      <c r="B97" s="109"/>
+      <c r="C97" s="120"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -4137,8 +4121,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="93"/>
-      <c r="C98" s="98"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="120"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -4154,8 +4138,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="94"/>
-      <c r="C99" s="100"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
       <c r="F99" s="45"/>
@@ -4171,10 +4155,8 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="95"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -4190,8 +4172,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="93"/>
-      <c r="C101" s="95"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -4207,8 +4189,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="93"/>
-      <c r="C102" s="95"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="121"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -4224,8 +4206,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="93"/>
-      <c r="C103" s="95"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="121"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -4241,8 +4223,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="93"/>
-      <c r="C104" s="95"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="121"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -4258,8 +4240,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="93"/>
-      <c r="C105" s="95"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="121"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -4275,8 +4257,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="93"/>
-      <c r="C106" s="96"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="122"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -4292,8 +4274,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="93"/>
-      <c r="C107" s="96"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="122"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -4309,8 +4291,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="93"/>
-      <c r="C108" s="96"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="122"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -4326,8 +4308,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="93"/>
-      <c r="C109" s="96"/>
+      <c r="B109" s="109"/>
+      <c r="C109" s="122"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -4343,8 +4325,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="93"/>
-      <c r="C110" s="96"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="122"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -4360,8 +4342,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="93"/>
-      <c r="C111" s="96"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="122"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -4377,8 +4359,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="93"/>
-      <c r="C112" s="97"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -4394,8 +4376,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="93"/>
-      <c r="C113" s="98"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="120"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -4411,8 +4393,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="93"/>
-      <c r="C114" s="98"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="120"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -4428,8 +4410,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="93"/>
-      <c r="C115" s="98"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="120"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -4445,8 +4427,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="93"/>
-      <c r="C116" s="98"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="120"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -4462,8 +4444,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="94"/>
-      <c r="C117" s="99"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -4480,20 +4462,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E5:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
     <mergeCell ref="B100:B117"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C106:C111"/>
@@ -4506,6 +4474,20 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="E5:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3718D0-3285-4433-852A-112E355D1E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D6CF5-6E0B-4C86-9EDD-05F525DEDC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
@@ -51,10 +51,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Sample Schedules</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
   <si>
     <t>Weeks</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dmitry klokov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +162,14 @@
   <si>
     <t>Fri</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POCoach Strength5x5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressive Overload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1398,6 +1398,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,21 +1461,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,24 +1474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007F409-E72B-4603-8FBB-AC8C474A0966}">
   <dimension ref="B2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1924,45 +1924,45 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101"/>
+      <c r="E5" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="112"/>
       <c r="R5" s="68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="104"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="115"/>
       <c r="R6" s="61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="71">
         <v>3</v>
@@ -1972,43 +1972,43 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="104"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115"/>
       <c r="R7" s="69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S7" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="E8" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="119"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="9" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="D9" s="60" t="s">
         <v>3</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="58">
         <v>1</v>
@@ -2061,24 +2061,24 @@
         <v>12</v>
       </c>
       <c r="R9" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="79" t="s">
-        <v>8</v>
-      </c>
       <c r="T9" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="85" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>16</v>
+      <c r="B10" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="67">
         <v>5</v>
@@ -2132,7 +2132,7 @@
         <v>55</v>
       </c>
       <c r="R10" s="81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S10" s="55">
         <v>140</v>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="111"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="56">
         <v>5</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="R11" s="77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" s="73">
         <f>ROUND(S10*0.75,10)</f>
@@ -2215,8 +2215,8 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="111"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="56">
         <v>5</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="R12" s="77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S12" s="73">
         <f>ROUND(S10*1.2,10)</f>
@@ -2284,8 +2284,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2305,8 +2305,8 @@
       <c r="U13" s="83"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2326,8 +2326,8 @@
       <c r="U14" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
@@ -2347,9 +2347,9 @@
       <c r="U15" s="83"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="113" t="s">
-        <v>17</v>
+      <c r="B16" s="100"/>
+      <c r="C16" s="109" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="62">
         <v>5</v>
@@ -2408,8 +2408,8 @@
       <c r="U16" s="83"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="111"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="56">
         <v>5</v>
       </c>
@@ -2467,8 +2467,8 @@
       <c r="U17" s="84"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
-      <c r="C18" s="111"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="56">
         <v>5</v>
       </c>
@@ -2522,8 +2522,8 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
-      <c r="C19" s="111"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2538,21 +2538,21 @@
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
       <c r="R19" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="S19" s="91" t="s">
-        <v>14</v>
-      </c>
       <c r="T19" s="90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U19" s="87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="111"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2571,18 +2571,18 @@
         <v>Mon</v>
       </c>
       <c r="S20" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="96" t="s">
-        <v>26</v>
-      </c>
       <c r="U20" s="88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="114"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2605,9 +2605,9 @@
       <c r="U21" s="88"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="109"/>
-      <c r="C22" s="115" t="s">
-        <v>18</v>
+      <c r="B22" s="100"/>
+      <c r="C22" s="121" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="64">
         <v>5</v>
@@ -2669,8 +2669,8 @@
       <c r="U22" s="88"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2731,8 +2731,8 @@
       <c r="U23" s="88"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="109"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2793,8 +2793,8 @@
       <c r="U24" s="88"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="109"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2855,8 +2855,8 @@
       <c r="U25" s="89"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
-      <c r="C26" s="117"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2910,8 +2910,8 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="110"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2927,10 +2927,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="111"/>
+      <c r="B28" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="108"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2946,8 +2946,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2963,8 +2963,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="111"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2980,8 +2980,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="111"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -2997,8 +2997,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="111"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -3014,8 +3014,8 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -3031,8 +3031,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="113"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -3048,8 +3048,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -3065,8 +3065,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="111"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -3082,8 +3082,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="111"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -3099,8 +3099,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -3116,8 +3116,8 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -3133,8 +3133,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
-      <c r="C40" s="113"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -3150,8 +3150,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -3167,8 +3167,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -3184,8 +3184,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="109"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -3201,8 +3201,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="109"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -3218,8 +3218,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="110"/>
-      <c r="C45" s="120"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -3235,10 +3235,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="121"/>
+      <c r="B46" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="102"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -3254,8 +3254,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="109"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -3271,8 +3271,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="109"/>
-      <c r="C48" s="121"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -3288,8 +3288,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="109"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -3305,8 +3305,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
-      <c r="C50" s="121"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -3322,8 +3322,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="109"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -3339,8 +3339,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="109"/>
-      <c r="C52" s="122"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -3356,8 +3356,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="109"/>
-      <c r="C53" s="122"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -3373,8 +3373,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="109"/>
-      <c r="C54" s="122"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -3390,8 +3390,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="109"/>
-      <c r="C55" s="122"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -3407,8 +3407,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="109"/>
-      <c r="C56" s="122"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -3424,8 +3424,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="109"/>
-      <c r="C57" s="122"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -3441,8 +3441,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="109"/>
-      <c r="C58" s="123"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -3458,8 +3458,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="109"/>
-      <c r="C59" s="120"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -3475,8 +3475,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -3492,8 +3492,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="109"/>
-      <c r="C61" s="120"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -3509,8 +3509,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="109"/>
-      <c r="C62" s="120"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="105"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -3526,8 +3526,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="110"/>
-      <c r="C63" s="112"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
       <c r="F63" s="45"/>
@@ -3543,8 +3543,8 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="119"/>
-      <c r="C64" s="121"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3560,8 +3560,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="109"/>
-      <c r="C65" s="121"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3577,8 +3577,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="121"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3594,8 +3594,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
-      <c r="C67" s="121"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3611,8 +3611,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
-      <c r="C68" s="121"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3628,8 +3628,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="109"/>
-      <c r="C69" s="121"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3645,8 +3645,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="109"/>
-      <c r="C70" s="122"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3662,8 +3662,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="109"/>
-      <c r="C71" s="122"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3679,8 +3679,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="109"/>
-      <c r="C72" s="122"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3696,8 +3696,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="109"/>
-      <c r="C73" s="122"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3713,8 +3713,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="109"/>
-      <c r="C74" s="122"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3730,8 +3730,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="109"/>
-      <c r="C75" s="122"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3747,8 +3747,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
-      <c r="C76" s="123"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="104"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3764,8 +3764,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="109"/>
-      <c r="C77" s="120"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="105"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3781,8 +3781,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="109"/>
-      <c r="C78" s="120"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3798,8 +3798,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="109"/>
-      <c r="C79" s="120"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="105"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3815,8 +3815,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="109"/>
-      <c r="C80" s="120"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="105"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3832,8 +3832,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="110"/>
-      <c r="C81" s="112"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
       <c r="F81" s="45"/>
@@ -3849,8 +3849,8 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="119"/>
-      <c r="C82" s="121"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="102"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3866,8 +3866,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="109"/>
-      <c r="C83" s="121"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3883,8 +3883,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="109"/>
-      <c r="C84" s="121"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3900,8 +3900,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="109"/>
-      <c r="C85" s="121"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3917,8 +3917,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="109"/>
-      <c r="C86" s="121"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3934,8 +3934,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="109"/>
-      <c r="C87" s="121"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="102"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3951,8 +3951,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="109"/>
-      <c r="C88" s="122"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="103"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3968,8 +3968,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="109"/>
-      <c r="C89" s="122"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="103"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -3985,8 +3985,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="109"/>
-      <c r="C90" s="122"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="103"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -4002,8 +4002,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="109"/>
-      <c r="C91" s="122"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="103"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -4019,8 +4019,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="109"/>
-      <c r="C92" s="122"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="103"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -4036,8 +4036,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="109"/>
-      <c r="C93" s="122"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="103"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -4053,8 +4053,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="109"/>
-      <c r="C94" s="123"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -4070,8 +4070,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="109"/>
-      <c r="C95" s="120"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -4087,8 +4087,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="109"/>
-      <c r="C96" s="120"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -4104,8 +4104,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="109"/>
-      <c r="C97" s="120"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="105"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -4121,8 +4121,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="109"/>
-      <c r="C98" s="120"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="105"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -4138,8 +4138,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110"/>
-      <c r="C99" s="112"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
       <c r="F99" s="45"/>
@@ -4155,8 +4155,8 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="119"/>
-      <c r="C100" s="121"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -4172,8 +4172,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="109"/>
-      <c r="C101" s="121"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -4189,8 +4189,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="109"/>
-      <c r="C102" s="121"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="102"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -4206,8 +4206,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="109"/>
-      <c r="C103" s="121"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -4223,8 +4223,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="109"/>
-      <c r="C104" s="121"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="102"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -4240,8 +4240,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="109"/>
-      <c r="C105" s="121"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -4257,8 +4257,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="109"/>
-      <c r="C106" s="122"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="103"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -4274,8 +4274,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="109"/>
-      <c r="C107" s="122"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="103"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -4291,8 +4291,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="109"/>
-      <c r="C108" s="122"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="103"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -4308,8 +4308,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="109"/>
-      <c r="C109" s="122"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="103"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -4325,8 +4325,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="109"/>
-      <c r="C110" s="122"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="103"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -4342,8 +4342,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="109"/>
-      <c r="C111" s="122"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="103"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -4359,8 +4359,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="109"/>
-      <c r="C112" s="123"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="104"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -4376,8 +4376,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="109"/>
-      <c r="C113" s="120"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="105"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -4393,8 +4393,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="109"/>
-      <c r="C114" s="120"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -4410,8 +4410,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="109"/>
-      <c r="C115" s="120"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="105"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -4427,8 +4427,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="109"/>
-      <c r="C116" s="120"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="105"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -4444,8 +4444,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="110"/>
-      <c r="C117" s="124"/>
+      <c r="B117" s="101"/>
+      <c r="C117" s="106"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -4462,6 +4462,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E5:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
     <mergeCell ref="B100:B117"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C106:C111"/>
@@ -4474,20 +4488,6 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="E5:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\develop\Desktop\BAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D6CF5-6E0B-4C86-9EDD-05F525DEDC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C27BFC-65D9-49D5-B4EB-76462A2DFD5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6AD8622-BC4F-4E2F-8E64-C7F2CE136F93}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="BBR">'[1]본인의 정보를 입력 하세요'!$I$14</definedName>
     <definedName name="BBRINT">'[1]본인의 정보를 입력 하세요'!$E$14</definedName>
     <definedName name="BP">'[1]본인의 정보를 입력 하세요'!$I$12</definedName>
-    <definedName name="BPINT">'[1]본인의 정보를 입력 하세요'!$E$12</definedName>
+    <definedName name="BPINT">Schedules!$S$11</definedName>
     <definedName name="DL">'[1]본인의 정보를 입력 하세요'!$I$13</definedName>
     <definedName name="DLINT">'[1]본인의 정보를 입력 하세요'!$E$13</definedName>
     <definedName name="OHP">'[1]본인의 정보를 입력 하세요'!$I$15</definedName>
@@ -1398,13 +1398,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,64 +1473,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,9 +1513,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="E12">
-            <v>0.125</v>
-          </cell>
           <cell r="I12">
             <v>0</v>
           </cell>
@@ -1873,7 +1870,7 @@
   <dimension ref="B2:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1924,20 +1921,20 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="112"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
       <c r="R5" s="68" t="s">
         <v>4</v>
       </c>
@@ -1949,18 +1946,18 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="115"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="104"/>
       <c r="R6" s="61" t="s">
         <v>5</v>
       </c>
@@ -1972,18 +1969,18 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="104"/>
       <c r="R7" s="69" t="s">
         <v>8</v>
       </c>
@@ -1995,20 +1992,20 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="119"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2074,17 +2071,17 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="111" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="67">
         <v>5</v>
       </c>
       <c r="E10" s="23">
-        <f>ROUND(S11*(1-U11*4)/(2*2.5),0)*2*2.5</f>
+        <f>ROUND(BPINT*(1-0.125*4)/(2*2.5),0)*2*2.5</f>
         <v>55</v>
       </c>
       <c r="F10" s="21">
@@ -2146,8 +2143,8 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="100"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="56">
         <v>5</v>
       </c>
@@ -2215,8 +2212,8 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="100"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="56">
         <v>5</v>
       </c>
@@ -2284,8 +2281,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="C13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="56"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2305,8 +2302,8 @@
       <c r="U13" s="83"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="100"/>
-      <c r="C14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="56"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2326,8 +2323,8 @@
       <c r="U14" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="100"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="56"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
@@ -2347,8 +2344,8 @@
       <c r="U15" s="83"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="C16" s="109" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="62">
@@ -2408,8 +2405,8 @@
       <c r="U16" s="83"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
-      <c r="C17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="56">
         <v>5</v>
       </c>
@@ -2467,8 +2464,8 @@
       <c r="U17" s="84"/>
     </row>
     <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
-      <c r="C18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="56">
         <v>5</v>
       </c>
@@ -2522,8 +2519,8 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="56"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -2551,8 +2548,8 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="100"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="56"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -2581,8 +2578,8 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="100"/>
-      <c r="C21" s="120"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="63"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
@@ -2605,8 +2602,8 @@
       <c r="U21" s="88"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100"/>
-      <c r="C22" s="121" t="s">
+      <c r="B22" s="109"/>
+      <c r="C22" s="115" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="64">
@@ -2669,8 +2666,8 @@
       <c r="U22" s="88"/>
     </row>
     <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
-      <c r="C23" s="122"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
@@ -2731,8 +2728,8 @@
       <c r="U23" s="88"/>
     </row>
     <row r="24" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="100"/>
-      <c r="C24" s="122"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="56">
         <v>3</v>
       </c>
@@ -2793,8 +2790,8 @@
       <c r="U24" s="88"/>
     </row>
     <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="100"/>
-      <c r="C25" s="122"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="56">
         <v>2</v>
       </c>
@@ -2855,8 +2852,8 @@
       <c r="U25" s="89"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="100"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="56">
         <v>1</v>
       </c>
@@ -2910,8 +2907,8 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="57"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -2927,10 +2924,10 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="56"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -2946,8 +2943,8 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="100"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="56"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2963,8 +2960,8 @@
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="100"/>
-      <c r="C30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="56"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
@@ -2980,8 +2977,8 @@
       <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="100"/>
-      <c r="C31" s="108"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="56"/>
       <c r="E31" s="28"/>
       <c r="F31" s="36"/>
@@ -2997,8 +2994,8 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="100"/>
-      <c r="C32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="56"/>
       <c r="E32" s="28"/>
       <c r="F32" s="36"/>
@@ -3014,8 +3011,8 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="100"/>
-      <c r="C33" s="107"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="56"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -3031,8 +3028,8 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="100"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="62"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
@@ -3048,8 +3045,8 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="100"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -3065,8 +3062,8 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="100"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -3082,8 +3079,8 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="100"/>
-      <c r="C37" s="108"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="56"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
@@ -3099,8 +3096,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="100"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="56"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -3116,8 +3113,8 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="100"/>
-      <c r="C39" s="107"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="65"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -3133,8 +3130,8 @@
       <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="100"/>
-      <c r="C40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -3150,8 +3147,8 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="100"/>
-      <c r="C41" s="108"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -3167,8 +3164,8 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="100"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
@@ -3184,8 +3181,8 @@
       <c r="P42" s="30"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="100"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="36"/>
@@ -3201,8 +3198,8 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="100"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="36"/>
@@ -3218,8 +3215,8 @@
       <c r="P44" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
-      <c r="C45" s="105"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="36"/>
@@ -3235,10 +3232,10 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="66"/>
       <c r="E46" s="44"/>
       <c r="F46" s="18"/>
@@ -3254,8 +3251,8 @@
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="100"/>
-      <c r="C47" s="102"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="56"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -3271,8 +3268,8 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="100"/>
-      <c r="C48" s="102"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="56"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
@@ -3288,8 +3285,8 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="100"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="56"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -3305,8 +3302,8 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="100"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="56"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -3322,8 +3319,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="100"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="65"/>
       <c r="E51" s="41"/>
       <c r="F51" s="45"/>
@@ -3339,8 +3336,8 @@
       <c r="P51" s="46"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="100"/>
-      <c r="C52" s="103"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="62"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -3356,8 +3353,8 @@
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="100"/>
-      <c r="C53" s="103"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -3373,8 +3370,8 @@
       <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="100"/>
-      <c r="C54" s="103"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -3390,8 +3387,8 @@
       <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="100"/>
-      <c r="C55" s="103"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -3407,8 +3404,8 @@
       <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="100"/>
-      <c r="C56" s="103"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="56"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -3424,8 +3421,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="100"/>
-      <c r="C57" s="103"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="122"/>
       <c r="D57" s="65"/>
       <c r="E57" s="47"/>
       <c r="F57" s="48"/>
@@ -3441,8 +3438,8 @@
       <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="100"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="62"/>
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
@@ -3458,8 +3455,8 @@
       <c r="P58" s="40"/>
     </row>
     <row r="59" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="100"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="56"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -3475,8 +3472,8 @@
       <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="100"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="56"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -3492,8 +3489,8 @@
       <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="100"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="120"/>
       <c r="D61" s="56"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -3509,8 +3506,8 @@
       <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="100"/>
-      <c r="C62" s="105"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="120"/>
       <c r="D62" s="56"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -3526,8 +3523,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="101"/>
-      <c r="C63" s="107"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="65"/>
       <c r="E63" s="42"/>
       <c r="F63" s="45"/>
@@ -3543,8 +3540,8 @@
       <c r="P63" s="46"/>
     </row>
     <row r="64" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="99"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="121"/>
       <c r="D64" s="66"/>
       <c r="E64" s="44"/>
       <c r="F64" s="18"/>
@@ -3560,8 +3557,8 @@
       <c r="P64" s="19"/>
     </row>
     <row r="65" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="100"/>
-      <c r="C65" s="102"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="56"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -3577,8 +3574,8 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="100"/>
-      <c r="C66" s="102"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="121"/>
       <c r="D66" s="56"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
@@ -3594,8 +3591,8 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="100"/>
-      <c r="C67" s="102"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="56"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -3611,8 +3608,8 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="100"/>
-      <c r="C68" s="102"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="121"/>
       <c r="D68" s="56"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
@@ -3628,8 +3625,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="100"/>
-      <c r="C69" s="102"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="121"/>
       <c r="D69" s="65"/>
       <c r="E69" s="41"/>
       <c r="F69" s="45"/>
@@ -3645,8 +3642,8 @@
       <c r="P69" s="46"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="100"/>
-      <c r="C70" s="103"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="62"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -3662,8 +3659,8 @@
       <c r="P70" s="27"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="100"/>
-      <c r="C71" s="103"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="56"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -3679,8 +3676,8 @@
       <c r="P71" s="30"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="100"/>
-      <c r="C72" s="103"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="56"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -3696,8 +3693,8 @@
       <c r="P72" s="30"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="100"/>
-      <c r="C73" s="103"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -3713,8 +3710,8 @@
       <c r="P73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="100"/>
-      <c r="C74" s="103"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="56"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
@@ -3730,8 +3727,8 @@
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="100"/>
-      <c r="C75" s="103"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="122"/>
       <c r="D75" s="65"/>
       <c r="E75" s="47"/>
       <c r="F75" s="48"/>
@@ -3747,8 +3744,8 @@
       <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="100"/>
-      <c r="C76" s="104"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="62"/>
       <c r="E76" s="38"/>
       <c r="F76" s="39"/>
@@ -3764,8 +3761,8 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="100"/>
-      <c r="C77" s="105"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="120"/>
       <c r="D77" s="56"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -3781,8 +3778,8 @@
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="100"/>
-      <c r="C78" s="105"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="120"/>
       <c r="D78" s="56"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
@@ -3798,8 +3795,8 @@
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="100"/>
-      <c r="C79" s="105"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="120"/>
       <c r="D79" s="56"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -3815,8 +3812,8 @@
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="100"/>
-      <c r="C80" s="105"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="120"/>
       <c r="D80" s="56"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
@@ -3832,8 +3829,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="101"/>
-      <c r="C81" s="107"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="65"/>
       <c r="E81" s="42"/>
       <c r="F81" s="45"/>
@@ -3849,8 +3846,8 @@
       <c r="P81" s="46"/>
     </row>
     <row r="82" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="99"/>
-      <c r="C82" s="102"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="66"/>
       <c r="E82" s="44"/>
       <c r="F82" s="18"/>
@@ -3866,8 +3863,8 @@
       <c r="P82" s="19"/>
     </row>
     <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="100"/>
-      <c r="C83" s="102"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="56"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
@@ -3883,8 +3880,8 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="100"/>
-      <c r="C84" s="102"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="56"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
@@ -3900,8 +3897,8 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="100"/>
-      <c r="C85" s="102"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="56"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
@@ -3917,8 +3914,8 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="100"/>
-      <c r="C86" s="102"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="56"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3934,8 +3931,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="100"/>
-      <c r="C87" s="102"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="65"/>
       <c r="E87" s="41"/>
       <c r="F87" s="45"/>
@@ -3951,8 +3948,8 @@
       <c r="P87" s="46"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="100"/>
-      <c r="C88" s="103"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="62"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -3968,8 +3965,8 @@
       <c r="P88" s="27"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="100"/>
-      <c r="C89" s="103"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="122"/>
       <c r="D89" s="56"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -3985,8 +3982,8 @@
       <c r="P89" s="30"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="100"/>
-      <c r="C90" s="103"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="122"/>
       <c r="D90" s="56"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
@@ -4002,8 +3999,8 @@
       <c r="P90" s="30"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="100"/>
-      <c r="C91" s="103"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="56"/>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
@@ -4019,8 +4016,8 @@
       <c r="P91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="100"/>
-      <c r="C92" s="103"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="122"/>
       <c r="D92" s="56"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -4036,8 +4033,8 @@
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="100"/>
-      <c r="C93" s="103"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="122"/>
       <c r="D93" s="65"/>
       <c r="E93" s="47"/>
       <c r="F93" s="48"/>
@@ -4053,8 +4050,8 @@
       <c r="P93" s="49"/>
     </row>
     <row r="94" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="100"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="62"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
@@ -4070,8 +4067,8 @@
       <c r="P94" s="40"/>
     </row>
     <row r="95" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="100"/>
-      <c r="C95" s="105"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="56"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
@@ -4087,8 +4084,8 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="100"/>
-      <c r="C96" s="105"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="120"/>
       <c r="D96" s="56"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
@@ -4104,8 +4101,8 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="100"/>
-      <c r="C97" s="105"/>
+      <c r="B97" s="109"/>
+      <c r="C97" s="120"/>
       <c r="D97" s="56"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
@@ -4121,8 +4118,8 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="100"/>
-      <c r="C98" s="105"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="120"/>
       <c r="D98" s="56"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
@@ -4138,8 +4135,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="101"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="65"/>
       <c r="E99" s="42"/>
       <c r="F99" s="45"/>
@@ -4155,8 +4152,8 @@
       <c r="P99" s="46"/>
     </row>
     <row r="100" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="99"/>
-      <c r="C100" s="102"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="66"/>
       <c r="E100" s="44"/>
       <c r="F100" s="18"/>
@@ -4172,8 +4169,8 @@
       <c r="P100" s="19"/>
     </row>
     <row r="101" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="100"/>
-      <c r="C101" s="102"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="56"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
@@ -4189,8 +4186,8 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="100"/>
-      <c r="C102" s="102"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="121"/>
       <c r="D102" s="56"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
@@ -4206,8 +4203,8 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="100"/>
-      <c r="C103" s="102"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="121"/>
       <c r="D103" s="56"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
@@ -4223,8 +4220,8 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="100"/>
-      <c r="C104" s="102"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="121"/>
       <c r="D104" s="56"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -4240,8 +4237,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="100"/>
-      <c r="C105" s="102"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="121"/>
       <c r="D105" s="65"/>
       <c r="E105" s="41"/>
       <c r="F105" s="45"/>
@@ -4257,8 +4254,8 @@
       <c r="P105" s="46"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="100"/>
-      <c r="C106" s="103"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="122"/>
       <c r="D106" s="62"/>
       <c r="E106" s="25"/>
       <c r="F106" s="26"/>
@@ -4274,8 +4271,8 @@
       <c r="P106" s="27"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="100"/>
-      <c r="C107" s="103"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="122"/>
       <c r="D107" s="56"/>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -4291,8 +4288,8 @@
       <c r="P107" s="30"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="100"/>
-      <c r="C108" s="103"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="122"/>
       <c r="D108" s="56"/>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -4308,8 +4305,8 @@
       <c r="P108" s="30"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="100"/>
-      <c r="C109" s="103"/>
+      <c r="B109" s="109"/>
+      <c r="C109" s="122"/>
       <c r="D109" s="56"/>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
@@ -4325,8 +4322,8 @@
       <c r="P109" s="30"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="100"/>
-      <c r="C110" s="103"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="122"/>
       <c r="D110" s="56"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
@@ -4342,8 +4339,8 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="100"/>
-      <c r="C111" s="103"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="122"/>
       <c r="D111" s="65"/>
       <c r="E111" s="47"/>
       <c r="F111" s="48"/>
@@ -4359,8 +4356,8 @@
       <c r="P111" s="49"/>
     </row>
     <row r="112" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="100"/>
-      <c r="C112" s="104"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="62"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
@@ -4376,8 +4373,8 @@
       <c r="P112" s="40"/>
     </row>
     <row r="113" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="100"/>
-      <c r="C113" s="105"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="120"/>
       <c r="D113" s="56"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
@@ -4393,8 +4390,8 @@
       <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="100"/>
-      <c r="C114" s="105"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="120"/>
       <c r="D114" s="56"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
@@ -4410,8 +4407,8 @@
       <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="100"/>
-      <c r="C115" s="105"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="120"/>
       <c r="D115" s="56"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
@@ -4427,8 +4424,8 @@
       <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="100"/>
-      <c r="C116" s="105"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="120"/>
       <c r="D116" s="56"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
@@ -4444,8 +4441,8 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="101"/>
-      <c r="C117" s="106"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="57"/>
       <c r="E117" s="50"/>
       <c r="F117" s="51"/>
@@ -4462,20 +4459,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E5:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
     <mergeCell ref="B100:B117"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C106:C111"/>
@@ -4488,6 +4471,20 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C88:C93"/>
     <mergeCell ref="C94:C99"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="E5:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
